--- a/Project supporting Artifacts/Evaluation/GOMS-Polish_test_1.xlsx
+++ b/Project supporting Artifacts/Evaluation/GOMS-Polish_test_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikodem/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D7AF2-029A-EB42-93BF-FEEF6E01CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E383B3-1D36-684D-BAB4-B4B093E2CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" firstSheet="14" activeTab="16" xr2:uid="{4FF5F388-14DE-5040-B071-95F76F7E24BA}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16080" xr2:uid="{4FF5F388-14DE-5040-B071-95F76F7E24BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCED56-B1F8-4349-9CA5-CFF48A33C9D8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,9 +1371,9 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>'Trim Whitespace'!C6</f>
-        <v>1 min</v>
+      <c r="B10" s="2">
+        <f>'Trim Whitespace'!C7</f>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <f>'Trim Whitespace'!G7</f>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B19" s="1">
         <f>SUM(B2:B18)</f>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B20" s="1">
         <f>B19/60</f>
-        <v>2.0666666666666669</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="C20" s="1">
         <f>C19/60</f>
@@ -3017,7 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6779DF32-F3C5-8D4E-BC6D-C6BF3912FD45}">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
